--- a/com.sevenrmartsupermarket/src/main/resources/ExcelFiles/LoginData.xlsx
+++ b/com.sevenrmartsupermarket/src/main/resources/ExcelFiles/LoginData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\repository\com.sevenrmartsupermarket\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E549F95A-3469-4BA8-AAA4-DF0CE90D4723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505F125E-1160-457C-8CF2-C6B2AA219094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{03462C01-66BB-4958-949C-807A10CE3C11}"/>
   </bookViews>
@@ -36,12 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Amina</t>
   </si>
   <si>
     <t>B000A0GB7Q</t>
+  </si>
+  <si>
+    <t>revathy1</t>
+  </si>
+  <si>
+    <t>revathy2</t>
   </si>
 </sst>
 </file>
@@ -413,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0275BA77-73D6-4922-BAF6-D01C37290AA1}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,6 +439,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
